--- a/Library/src/main/java/Excel/Books.xlsx
+++ b/Library/src/main/java/Excel/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\МИФИ\GitHub\Lab_1\Library\src\main\java\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD3778-A2AC-4792-B397-BCDC2E134D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C712A0-BE3B-4E5A-9F35-04B99CC91123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Лабораторный практикум</t>
   </si>
@@ -277,6 +277,60 @@
   </si>
   <si>
     <t>Загадочное</t>
+  </si>
+  <si>
+    <t>приключение</t>
+  </si>
+  <si>
+    <t>проишествие</t>
+  </si>
+  <si>
+    <t>событие</t>
+  </si>
+  <si>
+    <t>путешествие</t>
+  </si>
+  <si>
+    <t>убийство</t>
+  </si>
+  <si>
+    <t>крещение</t>
+  </si>
+  <si>
+    <t>рождение</t>
+  </si>
+  <si>
+    <t>выживание</t>
+  </si>
+  <si>
+    <t>Артура</t>
+  </si>
+  <si>
+    <t>Димы</t>
+  </si>
+  <si>
+    <t>Ислама</t>
+  </si>
+  <si>
+    <t>Преподователей 30 каф.</t>
+  </si>
+  <si>
+    <t>Инопришеленцев</t>
+  </si>
+  <si>
+    <t>Лорда Максимова</t>
+  </si>
+  <si>
+    <t>на луне</t>
+  </si>
+  <si>
+    <t>в недрах луны</t>
+  </si>
+  <si>
+    <t>в поликлинике</t>
+  </si>
+  <si>
+    <t>в МИФИ</t>
   </si>
 </sst>
 </file>
@@ -594,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,9 +662,11 @@
     <col min="4" max="4" width="26.36328125" customWidth="1"/>
     <col min="5" max="5" width="19.1796875" customWidth="1"/>
     <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,8 +685,14 @@
       <c r="F1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -649,8 +711,14 @@
       <c r="F2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -669,8 +737,14 @@
       <c r="F3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -689,8 +763,14 @@
       <c r="F4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -709,8 +789,14 @@
       <c r="F5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -729,8 +815,14 @@
       <c r="F6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -749,8 +841,14 @@
       <c r="F7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -766,8 +864,14 @@
       <c r="F8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -783,8 +887,11 @@
       <c r="F9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -800,8 +907,11 @@
       <c r="F10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -818,7 +928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -832,7 +942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -843,7 +953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -851,7 +961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -859,7 +969,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>22</v>
       </c>
